--- a/泰和楼私房菜.xlsx
+++ b/泰和楼私房菜.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="泰和楼私房菜" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="泰和楼私房菜" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -865,6 +865,74 @@
     <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1129,7 +1197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD110"/>
+  <dimension ref="A1:BD112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
@@ -23388,9 +23456,6 @@
           <t>0.00</t>
         </is>
       </c>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="inlineStr"/>
-      <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr">
         <is>
           <t>0</t>
@@ -23502,6 +23567,363 @@
         </is>
       </c>
       <c r="AU110" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>105.87</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>1,583</t>
+        </is>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X111" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="Y111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA111" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AF111" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AG111" t="inlineStr">
+        <is>
+          <t>珠海_泰和楼私房菜2人餐[158.0]</t>
+        </is>
+      </c>
+      <c r="AH111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI111" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AJ111" t="inlineStr">
+        <is>
+          <t>珠海_泰和楼私房菜4人餐[198.0]</t>
+        </is>
+      </c>
+      <c r="AK111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL111" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AM111" t="inlineStr">
+        <is>
+          <t>珠海_泰和楼私房菜6人餐[288.0]</t>
+        </is>
+      </c>
+      <c r="AN111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO111" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP111" t="inlineStr">
+        <is>
+          <t>珠海_泰和楼私房菜黄金焗鲍鱼[11.8]</t>
+        </is>
+      </c>
+      <c r="AQ111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR111" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS111" t="inlineStr">
+        <is>
+          <t>珠海_泰和楼私房菜代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AT111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU111" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2022-03-17</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>68.00</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>1,545</t>
+        </is>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr"/>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X112" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="Y112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA112" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AF112" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AG112" t="inlineStr">
+        <is>
+          <t>珠海_泰和楼私房菜2人餐[158.0]</t>
+        </is>
+      </c>
+      <c r="AH112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI112" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AJ112" t="inlineStr">
+        <is>
+          <t>珠海_泰和楼私房菜4人餐[198.0]</t>
+        </is>
+      </c>
+      <c r="AK112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL112" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AM112" t="inlineStr">
+        <is>
+          <t>珠海_泰和楼私房菜6人餐[288.0]</t>
+        </is>
+      </c>
+      <c r="AN112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO112" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP112" t="inlineStr">
+        <is>
+          <t>珠海_泰和楼私房菜黄金焗鲍鱼[11.8]</t>
+        </is>
+      </c>
+      <c r="AQ112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR112" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS112" t="inlineStr">
+        <is>
+          <t>珠海_泰和楼私房菜代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AT112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU112" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
